--- a/proyectoFinal/Sprints.xlsx
+++ b/proyectoFinal/Sprints.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jf.gonzalez695\Documents\CV\computacionVisual\proyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3124CF4-6D5C-42AC-8880-6373DFC7361D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA48B0-E779-471D-BF70-EB942177F594}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" xr2:uid="{B9209762-C8A1-464E-8244-33C73D5B4A66}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="3" xr2:uid="{B9209762-C8A1-464E-8244-33C73D5B4A66}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sp1" sheetId="3" r:id="rId1"/>
+    <sheet name="Sp2" sheetId="1" r:id="rId2"/>
+    <sheet name="Sp3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sp4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -58,17 +60,9 @@
     <t>Terminado (Basico)</t>
   </si>
   <si>
-    <t>No completado</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Semana 2 (22/08-29/08) 
-</t>
-  </si>
-  <si>
     <t>Semana 2 (02/05 - 09/05)</t>
   </si>
   <si>
@@ -94,6 +88,84 @@
   </si>
   <si>
     <t>Parametrización de las luces</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Entender la problemática y la información necesaria para abordarla</t>
+  </si>
+  <si>
+    <t>Estudio de software existente</t>
+  </si>
+  <si>
+    <t>Estudio de luminotecnia</t>
+  </si>
+  <si>
+    <t>Estado del arte</t>
+  </si>
+  <si>
+    <t>Probar diferentes ambientes</t>
+  </si>
+  <si>
+    <t>Estudio de física de luminotecnia</t>
+  </si>
+  <si>
+    <t>Definición del proyecto</t>
+  </si>
+  <si>
+    <t>Suspendido</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Inclusión de variables físicas</t>
+  </si>
+  <si>
+    <t>Semana 1 (25/04 - 02/05)</t>
+  </si>
+  <si>
+    <t>Semana 3 (09/05 - 16/05)</t>
+  </si>
+  <si>
+    <t>luminancia</t>
+  </si>
+  <si>
+    <t>Iluminancia</t>
+  </si>
+  <si>
+    <t>Decaimiento</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Incluir variables físicas</t>
+  </si>
+  <si>
+    <t>Estudio de física</t>
+  </si>
+  <si>
+    <t>Incluir archivos IES y validar</t>
+  </si>
+  <si>
+    <t>Inclusión de archivos IES</t>
+  </si>
+  <si>
+    <t>Entendimiento de los archivos</t>
+  </si>
+  <si>
+    <t>Cargue</t>
+  </si>
+  <si>
+    <t>Uso de archivos en Dialux</t>
+  </si>
+  <si>
+    <t>Semana 4 y 5 (16/05 - 30/05)</t>
+  </si>
+  <si>
+    <t>Comparación y Blog</t>
   </si>
 </sst>
 </file>
@@ -358,80 +430,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,11 +818,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217693E4-5ABC-477D-A67F-2EE276DCF7F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62992C24-D8D4-4559-8967-E5FC2410CBE6}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,19 +835,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="30"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
+      <c r="B2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -791,166 +863,365 @@
       <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14">
         <f>SUM(C8:C11)</f>
-        <v>9</v>
-      </c>
-      <c r="D7" s="15">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14">
         <f>SUM(D8:D11)</f>
-        <v>13.5</v>
-      </c>
-      <c r="E7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="18">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
-        <v>5</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="A8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-      <c r="D9" s="19">
-        <v>2</v>
-      </c>
-      <c r="E9" s="20" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="18">
-        <v>2</v>
-      </c>
-      <c r="D10" s="19">
-        <v>6</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>9</v>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>2</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="18">
-        <v>2</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="25"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
-        <v>2</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="15">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="14">
         <f>SUM(C13:C14)</f>
         <v>3</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>SUM(D13:D14)</f>
+        <v>3</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="27">
+        <v>3</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22">
+        <f>C12+C7</f>
+        <v>9</v>
+      </c>
+      <c r="D15" s="22">
+        <f>D12+D7</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217693E4-5ABC-477D-A67F-2EE276DCF7F1}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="14">
+        <f>SUM(C8:C11)</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(D8:D11)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="28">
-        <v>2</v>
-      </c>
-      <c r="D13" s="29">
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>3</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="18">
         <v>0.5</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E11" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14">
+        <f>SUM(C13:C14)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <f>SUM(D13:D14)</f>
+        <v>5</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="27">
+        <v>2</v>
+      </c>
+      <c r="D13" s="28">
+        <v>3</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="27">
+        <v>1</v>
+      </c>
+      <c r="D14" s="28">
+        <v>2</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="28">
-        <v>1</v>
-      </c>
-      <c r="D14" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22" t="s">
+      <c r="C15" s="22">
+        <f>C12+C7</f>
         <v>11</v>
       </c>
-      <c r="C15" s="23">
-        <f>C12+C7</f>
-        <v>12</v>
-      </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <f>D12+D7</f>
-        <v>14.5</v>
-      </c>
-      <c r="E15" s="24"/>
+        <v>13.5</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -961,14 +1232,371 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A6A26D-BF54-4A80-9DC9-BB03DA9D9CEF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14">
+        <f>SUM(C8:C11)</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(D8:D11)</f>
+        <v>11</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="17">
+        <v>2</v>
+      </c>
+      <c r="D9" s="18">
+        <v>4</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="17">
+        <v>2</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="22">
+        <f>SUM(C7)</f>
+        <v>7</v>
+      </c>
+      <c r="D12" s="22">
+        <f>+D7</f>
+        <v>11</v>
+      </c>
+      <c r="E12" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D1182D7-2E33-4DB9-BCCC-80B0083BBFBB}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
+        <v>1</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="14">
+        <f>SUM(C8:C11)</f>
+        <v>14</v>
+      </c>
+      <c r="D7" s="14">
+        <f>SUM(D8:D11)</f>
+        <v>14</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="17">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25"/>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="18">
+        <v>2</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="17">
+        <v>6</v>
+      </c>
+      <c r="D10" s="18">
+        <v>10</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="14">
+        <f>SUM(C13:C14)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="14">
+        <f>SUM(D13:D14)</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="27">
+        <v>4</v>
+      </c>
+      <c r="D13" s="28">
+        <v>6</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="27">
+        <v>2</v>
+      </c>
+      <c r="D14" s="28">
+        <v>3</v>
+      </c>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="22">
+        <f>C12+C7</f>
+        <v>20</v>
+      </c>
+      <c r="D15" s="22">
+        <f>D12+D7</f>
+        <v>23</v>
+      </c>
+      <c r="E15" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/proyectoFinal/Sprints.xlsx
+++ b/proyectoFinal/Sprints.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jf.gonzalez695\Documents\CV\computacionVisual\proyectoFinal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AA48B0-E779-471D-BF70-EB942177F594}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FCFD5B-F493-42F5-90DE-A26238FCD3EE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980" activeTab="3" xr2:uid="{B9209762-C8A1-464E-8244-33C73D5B4A66}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>Sprint 2</t>
   </si>
@@ -1237,7 +1237,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="16" t="s">
         <v>38</v>
@@ -1369,7 +1369,9 @@
       <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
